--- a/medicine/Sexualité et sexologie/Spaced_out/Spaced_out.xlsx
+++ b/medicine/Sexualité et sexologie/Spaced_out/Spaced_out.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Spaced out (Outer Touch) est une comédie érotique de science-fiction réalisée par Norman J. Warren, sorti en 1979. 
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Trois créatures extraterrestres féminines atterrissent en catastrophe sur la Terre. Intriguées par les terriens, elles en capturent quatre (trois hommes et une femme) afin d'étudier leurs comportements sexuels, elles vont se livrer à toutes sortes de tests et d'expériences.
 </t>
@@ -543,7 +557,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Spaced out
 Titre alternatif : Outer Touch
@@ -583,7 +599,9 @@
           <t>Distribution]</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Barry Stokes : Oliver
 Tony Maiden : Willy
